--- a/BOLERA-FACTURA/FORMATO PARA LLENADO DE FACTURAS Y BOLETAS - VILLAFUERTE - 5 ESQUINAS.xlsx
+++ b/BOLERA-FACTURA/FORMATO PARA LLENADO DE FACTURAS Y BOLETAS - VILLAFUERTE - 5 ESQUINAS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\BOLERA-FACTURA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\EXTENCION_PHYTON\BOLERA-FACTURA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08EF11FC-AC4B-4C1A-AA89-41F1CA86D462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F5758A-E626-4850-9580-49AB6FDD8E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="84">
   <si>
     <t>VILLAFUERTE GARCIA ROSSANA GUISELA</t>
   </si>
@@ -276,6 +276,15 @@
   </si>
   <si>
     <t xml:space="preserve">SEGOVIA SAMAN FRANCISCO JOSE         </t>
+  </si>
+  <si>
+    <t>ERWIN ROBERT YAYA MANCO</t>
+  </si>
+  <si>
+    <t>JORGE LUIS SURICHAQUI ACOSTA</t>
+  </si>
+  <si>
+    <t>JUSTA FERMINA LAURA DE CHUQUISPUMA</t>
   </si>
 </sst>
 </file>
@@ -708,11 +717,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:J2052"/>
+  <dimension ref="A3:J2054"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D145" sqref="D145"/>
+      <pane ySplit="7" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F163" sqref="F163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2381,7 +2390,7 @@
         <v>176.27</v>
       </c>
       <c r="G84" s="8">
-        <f t="shared" ref="G84:G139" si="4">IF(ISBLANK(E84),F84,E84*1.18)</f>
+        <f t="shared" ref="G84:G138" si="4">IF(ISBLANK(E84),F84,E84*1.18)</f>
         <v>207.99860000000001</v>
       </c>
       <c r="H84" s="1" t="s">
@@ -3411,7 +3420,7 @@
         <v>1400</v>
       </c>
       <c r="G140" s="8">
-        <f t="shared" ref="G140:G150" si="5">IF(ISBLANK(E140),F140,E140*1.18)</f>
+        <f t="shared" ref="G140:G167" si="5">IF(ISBLANK(E140),F140,E140*1.18)</f>
         <v>1400</v>
       </c>
       <c r="H140" s="1" t="s">
@@ -3514,172 +3523,458 @@
         <v>80</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="5">
-        <v>45313</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G145" s="8">
+    <row r="145" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="5"/>
+      <c r="G145" s="8"/>
+    </row>
+    <row r="146" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="5"/>
+      <c r="G146" s="8"/>
+    </row>
+    <row r="147" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="5">
+        <v>45316</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D147" s="1">
+        <v>14033</v>
+      </c>
+      <c r="E147" s="3">
+        <v>917.8</v>
+      </c>
+      <c r="G147" s="8">
+        <f t="shared" si="5"/>
+        <v>1083.0039999999999</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="5">
+        <v>45316</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D148" s="1">
+        <v>14035</v>
+      </c>
+      <c r="F148" s="3">
+        <v>701</v>
+      </c>
+      <c r="G148" s="8">
+        <f t="shared" si="5"/>
+        <v>701</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="5">
+        <v>45316</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D149" s="1">
+        <v>14042</v>
+      </c>
+      <c r="F149" s="3">
+        <v>1260</v>
+      </c>
+      <c r="G149" s="8">
+        <f t="shared" si="5"/>
+        <v>1260</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="5">
+        <v>45316</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D150" s="1">
+        <v>14043</v>
+      </c>
+      <c r="E150" s="3">
+        <v>227.97</v>
+      </c>
+      <c r="G150" s="8">
+        <f t="shared" si="5"/>
+        <v>269.00459999999998</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="5">
+        <v>45316</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D151" s="1">
+        <v>14047</v>
+      </c>
+      <c r="F151" s="3">
+        <v>700</v>
+      </c>
+      <c r="G151" s="8">
+        <f t="shared" si="5"/>
+        <v>700</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="5">
+        <v>45316</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D152" s="1">
+        <v>14050</v>
+      </c>
+      <c r="E152" s="3">
+        <v>610.16999999999996</v>
+      </c>
+      <c r="G152" s="8">
+        <f t="shared" si="5"/>
+        <v>720.00059999999996</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="5">
+        <v>45316</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D153" s="1">
+        <v>14052</v>
+      </c>
+      <c r="E153" s="3">
+        <v>1609.32</v>
+      </c>
+      <c r="G153" s="8">
+        <f t="shared" si="5"/>
+        <v>1898.9975999999999</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="5">
+        <v>45316</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D154" s="1">
+        <v>3157</v>
+      </c>
+      <c r="E154" s="3">
+        <v>61.02</v>
+      </c>
+      <c r="G154" s="8">
+        <f t="shared" si="5"/>
+        <v>72.003600000000006</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="5">
+        <v>45316</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D155" s="1">
+        <v>14053</v>
+      </c>
+      <c r="E155" s="3">
+        <v>537.29</v>
+      </c>
+      <c r="G155" s="8">
+        <f t="shared" si="5"/>
+        <v>634.0021999999999</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="5">
+        <v>45316</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D156" s="1">
+        <v>14054</v>
+      </c>
+      <c r="E156" s="1">
+        <v>33.9</v>
+      </c>
+      <c r="G156" s="8">
+        <f t="shared" si="5"/>
+        <v>40.001999999999995</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="5">
+        <v>45316</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D157" s="1">
+        <v>14055</v>
+      </c>
+      <c r="F157" s="3">
+        <v>700</v>
+      </c>
+      <c r="G157" s="8">
+        <f t="shared" si="5"/>
+        <v>700</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="5">
+        <v>45316</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D158" s="1">
+        <v>14056</v>
+      </c>
+      <c r="F158" s="3">
+        <v>700</v>
+      </c>
+      <c r="G158" s="8">
+        <f t="shared" si="5"/>
+        <v>700</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="5">
+        <v>45316</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F159" s="3">
+        <v>700</v>
+      </c>
+      <c r="G159" s="8">
+        <f t="shared" si="5"/>
+        <v>700</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="5">
+        <v>45316</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F160" s="3">
+        <v>700</v>
+      </c>
+      <c r="G160" s="8">
+        <f t="shared" si="5"/>
+        <v>700</v>
+      </c>
+      <c r="H160" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="5">
+        <v>45316</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F161" s="3">
+        <v>700</v>
+      </c>
+      <c r="G161" s="8">
+        <f t="shared" si="5"/>
+        <v>700</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="5"/>
+      <c r="G162" s="8"/>
+    </row>
+    <row r="163" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="5"/>
+      <c r="G163" s="8"/>
+    </row>
+    <row r="164" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="5">
+        <v>45316</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="5">
-        <v>45313</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G146" s="8">
+    <row r="165" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="5">
+        <v>45316</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="5">
-        <v>45313</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G147" s="8">
+    <row r="166" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="5">
+        <v>45316</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="5">
-        <v>45313</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G148" s="8">
+    <row r="167" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="5">
+        <v>45316</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="5">
-        <v>45313</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G149" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="5">
-        <v>45313</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G150" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="5"/>
-    </row>
-    <row r="152" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="5"/>
-    </row>
-    <row r="153" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="5"/>
-    </row>
-    <row r="154" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="5"/>
-    </row>
-    <row r="155" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="5"/>
-    </row>
-    <row r="156" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="5"/>
-    </row>
-    <row r="157" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="5"/>
-    </row>
-    <row r="158" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="5"/>
-    </row>
-    <row r="159" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="5"/>
-    </row>
-    <row r="160" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="5"/>
-    </row>
-    <row r="161" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="5"/>
-    </row>
-    <row r="162" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="5"/>
-    </row>
-    <row r="163" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="5"/>
-    </row>
-    <row r="164" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="5"/>
-    </row>
-    <row r="165" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="5"/>
-    </row>
-    <row r="166" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="5"/>
-    </row>
-    <row r="167" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="5"/>
-    </row>
-    <row r="168" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="5"/>
     </row>
-    <row r="169" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="5"/>
     </row>
-    <row r="170" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="5"/>
     </row>
-    <row r="171" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="5"/>
     </row>
-    <row r="172" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="5"/>
     </row>
-    <row r="173" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="5"/>
     </row>
-    <row r="174" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="5"/>
     </row>
-    <row r="175" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="5"/>
     </row>
-    <row r="176" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="5"/>
     </row>
     <row r="177" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9309,6 +9604,12 @@
     </row>
     <row r="2052" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2052" s="5"/>
+    </row>
+    <row r="2053" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2053" s="5"/>
+    </row>
+    <row r="2054" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2054" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
